--- a/eda/vlsp2016/test/column-3-analyze.xlsx
+++ b/eda/vlsp2016/test/column-3-analyze.xlsx
@@ -19,97 +19,97 @@
     <t>3</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
+    <t>0</t>
   </si>
   <si>
     <t>count</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>B-LOC</t>
   </si>
   <si>
-    <t>NNP, N, Ny, Nb, Nc</t>
-  </si>
-  <si>
     <t>B-NP, B-PP</t>
   </si>
   <si>
+    <t>Np, N, Ny, FW, Nc</t>
+  </si>
+  <si>
     <t>VN, Sài Gòn, Nhật, xã, miền, huyện, HQ, đường, châu, TP.</t>
   </si>
   <si>
     <t>B-MISC</t>
   </si>
   <si>
-    <t>Ns, N, NNP</t>
-  </si>
-  <si>
     <t>B-NP, B-AP</t>
   </si>
   <si>
-    <t>người, tiếng, Người, French, Kenny, Japanese</t>
+    <t>Nc, N, Np</t>
+  </si>
+  <si>
+    <t>người, tiếng, French, Người, Japanese, Kenny</t>
   </si>
   <si>
     <t>B-ORG</t>
   </si>
   <si>
-    <t>N, NNP, Ny, Nc, Ne</t>
-  </si>
-  <si>
-    <t>Công ty, đội, Trường, Bộ, UBND, Cục, Butterfly, Liên đoàn, Tổng cuộc, Trung tâm</t>
+    <t>N, Np, Ny, Nc</t>
+  </si>
+  <si>
+    <t>Công ty, đội, Trường, Bộ, UBND, Cục, Liên đoàn, Tuyển, Trung tâm, Butterfly</t>
   </si>
   <si>
     <t>B-PER</t>
   </si>
   <si>
-    <t>NNP, N, Ny</t>
-  </si>
-  <si>
     <t>B-NP</t>
   </si>
   <si>
+    <t>Np, N, Ny</t>
+  </si>
+  <si>
     <t>Nguyễn, Trần, Mai, Hoà, Minh, Lê, Tiết, Bảy, Có, Được</t>
   </si>
   <si>
     <t>I-LOC</t>
   </si>
   <si>
-    <t>NNP, M, N, Ni, V, Nb, CH</t>
-  </si>
-  <si>
     <t>I-NP</t>
   </si>
   <si>
-    <t>HCM, Á, Nam, Hạ Long, Bắc, Phú Khánh, 3, Phù Cát, 1, Tây</t>
+    <t>Np, M, N, V, CH, FW</t>
+  </si>
+  <si>
+    <t>HCM, Á, Nam, Hạ Long, Bắc, Phú Khánh, Trung, 3, Tây, 1</t>
   </si>
   <si>
     <t>I-MISC</t>
   </si>
   <si>
-    <t>NNP</t>
-  </si>
-  <si>
-    <t>Việt, Style, Nhật, Anh, Trung Quốc, VN, Đức, Pháp, Úc, HQ</t>
+    <t>Np</t>
+  </si>
+  <si>
+    <t>Việt, Style, Nhật, Anh, Trung Quốc, Đức, VN, Ấn, Malaysia, Campuchia</t>
   </si>
   <si>
     <t>I-ORG</t>
   </si>
   <si>
-    <t>NNP, N, V, CH, M, Ny, Cc, Nb, A, X</t>
-  </si>
-  <si>
-    <t>đường, Nam, miền, VN, -, Entertainment, Thể Công, tỉnh, mía đường, Sài Gòn</t>
+    <t>Np, N, V, CH, M, Ny, C, FW, A, X</t>
+  </si>
+  <si>
+    <t>đường, miền, Nam, VN, Entertainment, -, tỉnh, Thể Công, lao động, Sài Gòn</t>
   </si>
   <si>
     <t>I-PER</t>
   </si>
   <si>
-    <t>NNP, CH, M, A, N, Ny</t>
+    <t>Np, CH, M, A, N, Ny</t>
   </si>
   <si>
     <t>Văn, Hoà, Sang, Thị, Oanh, Cảnh, Mai, Woo, Thành, Tiền</t>
@@ -118,10 +118,10 @@
     <t>O</t>
   </si>
   <si>
-    <t>N, V, CH, R, A, E, P, M, C, Ns</t>
-  </si>
-  <si>
     <t>B-NP, O, B-VP, B-AP, B-PP</t>
+  </si>
+  <si>
+    <t>N, V, CH, R, A, E, P, M, C, Nc</t>
   </si>
   <si>
     <t>,, ., “, ”, là, của, một, được, và, có</t>
@@ -508,11 +508,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
         <v>1377</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -525,11 +525,11 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
         <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -537,16 +537,16 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
         <v>274</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -559,11 +559,11 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="n">
         <v>1294</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -576,11 +576,11 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
         <v>463</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -588,16 +588,16 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="n">
         <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -605,16 +605,16 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="n">
         <v>397</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -622,16 +622,16 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="n">
         <v>983</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -644,11 +644,11 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="n">
         <v>61211</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
